--- a/final_data_pipeline/output/325312longform_elec_options.xlsx
+++ b/final_data_pipeline/output/325312longform_elec_options.xlsx
@@ -591,7 +591,7 @@
         <v>65</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L2">
         <v>8000</v>
@@ -612,10 +612,10 @@
         <v>4.006842105263158</v>
       </c>
       <c r="R2">
-        <v>1.714</v>
+        <v>1.599224389494701</v>
       </c>
       <c r="S2">
-        <v>1.856829268292683</v>
+        <v>1.721244347680456</v>
       </c>
       <c r="T2">
         <v>41.23845476316234</v>
@@ -650,7 +650,7 @@
         <v>38</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L3">
         <v>8000</v>
@@ -665,10 +665,10 @@
         <v>1222679.320258237</v>
       </c>
       <c r="R3">
-        <v>1.550576923076923</v>
+        <v>1.459904774678112</v>
       </c>
       <c r="S3">
-        <v>1.658958333333333</v>
+        <v>1.554373915558126</v>
       </c>
       <c r="T3">
         <v>152.8349150322796</v>
@@ -945,7 +945,7 @@
         <v>65</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L8">
         <v>8000</v>
@@ -966,10 +966,10 @@
         <v>4.006842105263158</v>
       </c>
       <c r="R8">
-        <v>1.714</v>
+        <v>1.599224389494701</v>
       </c>
       <c r="S8">
-        <v>1.856829268292683</v>
+        <v>1.721244347680456</v>
       </c>
       <c r="T8">
         <v>11.35093557098399</v>
@@ -1004,7 +1004,7 @@
         <v>38</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="L9">
         <v>8000</v>
@@ -1019,10 +1019,10 @@
         <v>336543.9919592535</v>
       </c>
       <c r="R9">
-        <v>1.550576923076923</v>
+        <v>1.459904774678112</v>
       </c>
       <c r="S9">
-        <v>1.658958333333333</v>
+        <v>1.554373915558126</v>
       </c>
       <c r="T9">
         <v>42.06799899490669</v>
@@ -1417,7 +1417,7 @@
         <v>65</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="L16">
         <v>8000</v>
@@ -1438,10 +1438,10 @@
         <v>4.006842105263158</v>
       </c>
       <c r="R16">
-        <v>1.714</v>
+        <v>1.763755319824684</v>
       </c>
       <c r="S16">
-        <v>1.856829268292683</v>
+        <v>1.916157449486122</v>
       </c>
       <c r="T16">
         <v>20.98264590357723</v>
@@ -1476,7 +1476,7 @@
         <v>38</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="L17">
         <v>8000</v>
@@ -1491,10 +1491,10 @@
         <v>622114.6591923791</v>
       </c>
       <c r="R17">
-        <v>1.550576923076923</v>
+        <v>1.58937742977605</v>
       </c>
       <c r="S17">
-        <v>1.658958333333333</v>
+        <v>1.704024252511443</v>
       </c>
       <c r="T17">
         <v>77.76433239904739</v>
@@ -1535,7 +1535,7 @@
         <v>65</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="L18">
         <v>8000</v>
@@ -1556,10 +1556,10 @@
         <v>4.006842105263158</v>
       </c>
       <c r="R18">
-        <v>1.714</v>
+        <v>1.763755319824684</v>
       </c>
       <c r="S18">
-        <v>1.856829268292683</v>
+        <v>1.916157449486122</v>
       </c>
       <c r="T18">
         <v>21.00328427862899</v>
@@ -1594,7 +1594,7 @@
         <v>38</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="L19">
         <v>8000</v>
@@ -1609,10 +1609,10 @@
         <v>622726.5665619556</v>
       </c>
       <c r="R19">
-        <v>1.550576923076923</v>
+        <v>1.58937742977605</v>
       </c>
       <c r="S19">
-        <v>1.658958333333333</v>
+        <v>1.704024252511443</v>
       </c>
       <c r="T19">
         <v>77.84082082024445</v>
